--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -859,10 +859,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1026,10 +1026,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>2.6</v>
@@ -1038,10 +1038,10 @@
         <v>1.49</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y4" t="n">
         <v>1.4</v>
@@ -1050,10 +1050,10 @@
         <v>2.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1065,10 +1065,10 @@
         <v>8.5</v>
       </c>
       <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1080,7 +1080,7 @@
         <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1089,13 +1089,13 @@
         <v>301</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
@@ -1026,10 +1026,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>2.6</v>
@@ -1038,10 +1038,10 @@
         <v>1.49</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y4" t="n">
         <v>1.4</v>
@@ -1056,7 +1056,7 @@
         <v>1.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1071,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>11</v>
@@ -1086,7 +1086,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
@@ -1139,52 +1139,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="J5" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L5" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="X5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="AA5" t="n">
         <v>1.7</v>
@@ -1193,28 +1193,28 @@
         <v>1.91</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
         <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK5" t="n">
         <v>13.5</v>
@@ -1223,22 +1223,22 @@
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -856,13 +856,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -907,16 +907,16 @@
         <v>1.57</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -940,7 +940,7 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
@@ -1026,10 +1026,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>2.6</v>
@@ -1038,10 +1038,10 @@
         <v>1.49</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y4" t="n">
         <v>1.4</v>
@@ -1056,7 +1056,7 @@
         <v>1.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
@@ -1071,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>11</v>
@@ -1086,7 +1086,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="K5" t="n">
         <v>1.98</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1162,12 +1162,12 @@
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
         <v>1.75</v>
@@ -1178,13 +1178,13 @@
         <v>2.95</v>
       </c>
       <c r="X5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AA5" t="n">
         <v>1.7</v>
@@ -1193,7 +1193,7 @@
         <v>1.91</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
         <v>26</v>
@@ -1211,10 +1211,10 @@
         <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK5" t="n">
         <v>13.5</v>
@@ -1226,10 +1226,10 @@
         <v>450</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -1026,10 +1026,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
         <v>2.6</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -883,10 +883,10 @@
         <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -895,10 +895,10 @@
         <v>1.14</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
         <v>2.25</v>
@@ -910,7 +910,7 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>9.5</v>
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1026,34 +1026,34 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1074,13 +1074,13 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -841,58 +841,58 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.95</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" t="n">
         <v>1.57</v>
@@ -910,25 +910,25 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -940,13 +940,13 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1014,10 +1014,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1026,16 +1026,16 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -1014,10 +1014,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1026,10 +1026,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>2.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1026,73 +1026,73 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="V4" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1104,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1139,46 +1139,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Y5" t="n">
         <v>1.42</v>
@@ -1187,61 +1187,61 @@
         <v>2.45</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AQ5" t="n">
         <v>16.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1032,10 +1032,10 @@
         <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
         <v>4</v>
@@ -1050,13 +1050,13 @@
         <v>2.63</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1077,13 +1077,13 @@
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>351</v>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1139,109 +1139,109 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="X5" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="Y5" t="n">
         <v>1.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
         <v>45</v>
       </c>
       <c r="AH5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AK5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -844,97 +844,97 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC3" t="n">
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>6.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1026,13 +1026,13 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="V4" t="n">
         <v>1.32</v>
@@ -1044,10 +1044,10 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" t="n">
         <v>2.2</v>
@@ -1065,25 +1065,25 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>351</v>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1162,83 +1162,83 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="X5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Y5" t="n">
         <v>1.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -841,64 +841,64 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.57</v>
       </c>
-      <c r="U3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Z3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
         <v>2.2</v>
@@ -910,46 +910,46 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1026,16 +1026,16 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
         <v>4</v>
@@ -1044,22 +1044,22 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1068,19 +1068,19 @@
         <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1104,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1139,58 +1139,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1205,16 +1205,16 @@
         <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AK5" t="n">
         <v>13</v>
@@ -1226,22 +1226,22 @@
         <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -856,13 +856,13 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -871,22 +871,22 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -940,16 +940,16 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1026,10 +1026,10 @@
         <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
         <v>3.2</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -871,16 +871,16 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U3" t="n">
         <v>4</v>
@@ -1032,10 +1032,10 @@
         <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
         <v>4</v>
@@ -1139,19 +1139,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
         <v>2.42</v>
@@ -1159,26 +1159,26 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="X5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
@@ -1193,10 +1193,10 @@
         <v>2.02</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>13.5</v>
@@ -1205,43 +1205,43 @@
         <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>7.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -916,7 +916,7 @@
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -999,13 +999,13 @@
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1044,22 +1044,22 @@
         <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1074,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
@@ -1095,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1104,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1145,10 +1145,10 @@
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J5" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.07</v>
@@ -1170,15 +1170,15 @@
         <v>1.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
@@ -1187,10 +1187,10 @@
         <v>2.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
@@ -1214,7 +1214,7 @@
         <v>10.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AK5" t="n">
         <v>12.5</v>
@@ -1226,22 +1226,22 @@
         <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP5" t="n">
         <v>7.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -853,16 +853,16 @@
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -883,10 +883,10 @@
         <v>1.48</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -916,22 +916,22 @@
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>81</v>
@@ -940,7 +940,7 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
@@ -1014,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1068,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1148,37 +1148,37 @@
         <v>1.82</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K5" t="n">
         <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
@@ -1190,13 +1190,13 @@
         <v>1.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>13.5</v>
@@ -1205,10 +1205,10 @@
         <v>75</v>
       </c>
       <c r="AG5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH5" t="n">
         <v>37</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>35</v>
       </c>
       <c r="AI5" t="n">
         <v>10.75</v>
@@ -1226,22 +1226,22 @@
         <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>7.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>2.6</v>
@@ -883,16 +883,16 @@
         <v>1.48</v>
       </c>
       <c r="U3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y3" t="n">
         <v>1.57</v>
@@ -910,13 +910,13 @@
         <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>81</v>
@@ -940,16 +940,16 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1014,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
@@ -1032,10 +1032,10 @@
         <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
         <v>4</v>
@@ -1139,46 +1139,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="X5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
@@ -1187,61 +1187,61 @@
         <v>2.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH5" t="n">
         <v>27</v>
       </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>37</v>
-      </c>
       <c r="AI5" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-19.xlsx
@@ -993,7 +993,7 @@
         <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
@@ -1008,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1187,58 +1187,58 @@
         <v>2.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>11.25</v>
       </c>
-      <c r="AD5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AF5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AP5" t="n">
         <v>8.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>23</v>
